--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP-Core仕様】基底仕様のカテゴリ「exam」固定とする</t>
+【JP Core仕様】基底仕様のカテゴリ「exam」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
@@ -674,7 +674,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP-Core仕様】所見の有無を表すコード（固定値）</t>
+【JP Core仕様】所見の有無を表すコード（固定値）</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -682,14 +682,14 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCodes_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
     &lt;code value="physical-findings"/&gt;
     &lt;display value="Physical Findings"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -726,7 +726,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP-Core仕様】患者</t>
+【JP Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -784,7 +784,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP-Core仕様】診察</t>
+【JP Core仕様】診察</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -821,7 +821,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP-Core仕様】effectiveDateTime：医療者が確認した日時
+【JP Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -911,7 +911,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP-Core仕様】コードに限定する</t>
+【JP Core仕様】コードに限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1365,7 +1365,7 @@
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP-Core仕様】関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP Core仕様】関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1389,7 +1389,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP-Core仕様】導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP Core仕様】導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1406,7 +1406,7 @@
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-【JP-Core仕様】具体的な所見を記載する</t>
+【JP Core仕様】具体的な所見を記載する</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
@@ -1438,12 +1438,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP-Core仕様】具体的な所見を表すコード（固定値）</t>
+【JP Core仕様】具体的な所見を表すコード（固定値）</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCodes_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
     &lt;code value="detailed-physical-findings"/&gt;
     &lt;display value="Detailed Physical Findings"/&gt;
   &lt;/coding&gt;
